--- a/src/main/resources/房间模板.xlsx
+++ b/src/main/resources/房间模板.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
-  <si>
-    <t>ASIN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>楼层</t>
   </si>
@@ -40,9 +37,6 @@
     <t>水表读数</t>
   </si>
   <si>
-    <t>asin</t>
-  </si>
-  <si>
     <t>单房</t>
   </si>
 </sst>
@@ -66,6 +60,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -80,22 +81,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,9 +103,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,17 +157,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,67 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -237,175 +231,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,32 +431,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,7 +441,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,153 +510,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,19 +1026,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="6" max="6" width="10.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1062,248 +1056,242 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>201</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
+      <c r="D2" s="1">
+        <v>600</v>
       </c>
       <c r="E2" s="1">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1">
-        <v>150</v>
-      </c>
-      <c r="G2" s="1">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
